--- a/PatternNumber.xlsx
+++ b/PatternNumber.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PreExperimentProgram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Git\PreExperimentProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="19320" windowHeight="9465"/>
+    <workbookView xWindow="2265" yWindow="0" windowWidth="19320" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +92,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -103,6 +104,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,18 +388,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="F34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="7.5" customWidth="1"/>
+    <col min="1" max="35" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -478,7 +482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -561,7 +565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -644,7 +648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>28</v>
       </c>
@@ -727,7 +731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>37</v>
       </c>
@@ -810,7 +814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -893,7 +897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -976,7 +980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>64</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -1142,8 +1146,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>19</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>46</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>55</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>64</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>73</v>
       </c>
@@ -1890,8 +1894,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1974,11 +1978,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>10</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>11</v>
       </c>
       <c r="C22" s="2">
@@ -2057,7 +2061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>28</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>55</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>64</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>73</v>
       </c>
@@ -2638,8 +2642,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K31" s="1">
         <v>1</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K32" s="1">
         <v>10</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K33" s="1">
         <v>19</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K34" s="1">
         <v>28</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K35" s="1">
         <v>37</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K36" s="1">
         <v>46</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K37" s="1">
         <v>55</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K38" s="1">
         <v>64</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K39" s="1">
         <v>73</v>
       </c>
@@ -2900,10 +2904,3701 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="11:19" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="11:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="56" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3">
+        <v>4</v>
+      </c>
+      <c r="O1" s="3">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>7</v>
+      </c>
+      <c r="R1" s="3">
+        <v>8</v>
+      </c>
+      <c r="S1" s="3">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="3">
+        <v>1</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3">
+        <v>3</v>
+      </c>
+      <c r="X1" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3">
+        <v>18</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="3">
+        <v>10</v>
+      </c>
+      <c r="V2" s="3">
+        <v>11</v>
+      </c>
+      <c r="W2" s="3">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3">
+        <v>26</v>
+      </c>
+      <c r="S3" s="3">
+        <v>27</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="3">
+        <v>19</v>
+      </c>
+      <c r="V3" s="3">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3">
+        <v>21</v>
+      </c>
+      <c r="X3" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>32</v>
+      </c>
+      <c r="P4" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>34</v>
+      </c>
+      <c r="R4" s="3">
+        <v>35</v>
+      </c>
+      <c r="S4" s="3">
+        <v>36</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="3">
+        <v>28</v>
+      </c>
+      <c r="V4" s="3">
+        <v>29</v>
+      </c>
+      <c r="W4" s="3">
+        <v>30</v>
+      </c>
+      <c r="X4" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3">
+        <v>44</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="3">
+        <v>37</v>
+      </c>
+      <c r="V5" s="2">
+        <v>38</v>
+      </c>
+      <c r="W5" s="2">
+        <v>39</v>
+      </c>
+      <c r="X5" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3">
+        <v>54</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3">
+        <v>47</v>
+      </c>
+      <c r="M6" s="3">
+        <v>48</v>
+      </c>
+      <c r="N6" s="3">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>52</v>
+      </c>
+      <c r="R6" s="3">
+        <v>53</v>
+      </c>
+      <c r="S6" s="3">
+        <v>54</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="3">
+        <v>46</v>
+      </c>
+      <c r="V6" s="3">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3">
+        <v>48</v>
+      </c>
+      <c r="X6" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3">
+        <v>61</v>
+      </c>
+      <c r="H7" s="3">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3">
+        <v>63</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3">
+        <v>55</v>
+      </c>
+      <c r="L7" s="3">
+        <v>56</v>
+      </c>
+      <c r="M7" s="3">
+        <v>57</v>
+      </c>
+      <c r="N7" s="3">
+        <v>58</v>
+      </c>
+      <c r="O7" s="2">
+        <v>59</v>
+      </c>
+      <c r="P7" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>61</v>
+      </c>
+      <c r="R7" s="3">
+        <v>62</v>
+      </c>
+      <c r="S7" s="3">
+        <v>63</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="3">
+        <v>55</v>
+      </c>
+      <c r="V7" s="3">
+        <v>56</v>
+      </c>
+      <c r="W7" s="3">
+        <v>57</v>
+      </c>
+      <c r="X7" s="3">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3">
+        <v>70</v>
+      </c>
+      <c r="H8" s="3">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3">
+        <v>72</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3">
+        <v>64</v>
+      </c>
+      <c r="L8" s="3">
+        <v>65</v>
+      </c>
+      <c r="M8" s="3">
+        <v>66</v>
+      </c>
+      <c r="N8" s="3">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2">
+        <v>68</v>
+      </c>
+      <c r="P8" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>70</v>
+      </c>
+      <c r="R8" s="3">
+        <v>71</v>
+      </c>
+      <c r="S8" s="3">
+        <v>72</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="3">
+        <v>64</v>
+      </c>
+      <c r="V8" s="3">
+        <v>65</v>
+      </c>
+      <c r="W8" s="3">
+        <v>66</v>
+      </c>
+      <c r="X8" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>76</v>
+      </c>
+      <c r="E9" s="3">
+        <v>77</v>
+      </c>
+      <c r="F9" s="3">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3">
+        <v>79</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80</v>
+      </c>
+      <c r="I9" s="3">
+        <v>81</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3">
+        <v>73</v>
+      </c>
+      <c r="L9" s="3">
+        <v>74</v>
+      </c>
+      <c r="M9" s="3">
+        <v>75</v>
+      </c>
+      <c r="N9" s="3">
+        <v>76</v>
+      </c>
+      <c r="O9" s="3">
+        <v>77</v>
+      </c>
+      <c r="P9" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>79</v>
+      </c>
+      <c r="R9" s="3">
+        <v>80</v>
+      </c>
+      <c r="S9" s="3">
+        <v>81</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3">
+        <v>73</v>
+      </c>
+      <c r="V9" s="3">
+        <v>74</v>
+      </c>
+      <c r="W9" s="3">
+        <v>75</v>
+      </c>
+      <c r="X9" s="3">
+        <v>76</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>80</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>7</v>
+      </c>
+      <c r="R11" s="3">
+        <v>8</v>
+      </c>
+      <c r="S11" s="3">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>3</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3">
+        <v>13</v>
+      </c>
+      <c r="O12" s="3">
+        <v>14</v>
+      </c>
+      <c r="P12" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>16</v>
+      </c>
+      <c r="R12" s="3">
+        <v>17</v>
+      </c>
+      <c r="S12" s="3">
+        <v>18</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="3">
+        <v>10</v>
+      </c>
+      <c r="V12" s="3">
+        <v>11</v>
+      </c>
+      <c r="W12" s="3">
+        <v>12</v>
+      </c>
+      <c r="X12" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>18</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>14</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3">
+        <v>21</v>
+      </c>
+      <c r="N13" s="3">
+        <v>22</v>
+      </c>
+      <c r="O13" s="3">
+        <v>23</v>
+      </c>
+      <c r="P13" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>25</v>
+      </c>
+      <c r="R13" s="3">
+        <v>26</v>
+      </c>
+      <c r="S13" s="3">
+        <v>27</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="3">
+        <v>19</v>
+      </c>
+      <c r="V13" s="3">
+        <v>20</v>
+      </c>
+      <c r="W13" s="3">
+        <v>21</v>
+      </c>
+      <c r="X13" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>24</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>25</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3">
+        <v>34</v>
+      </c>
+      <c r="H14" s="3">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3">
+        <v>36</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
+        <v>28</v>
+      </c>
+      <c r="L14" s="3">
+        <v>29</v>
+      </c>
+      <c r="M14" s="3">
+        <v>30</v>
+      </c>
+      <c r="N14" s="3">
+        <v>31</v>
+      </c>
+      <c r="O14" s="3">
+        <v>32</v>
+      </c>
+      <c r="P14" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>34</v>
+      </c>
+      <c r="R14" s="3">
+        <v>35</v>
+      </c>
+      <c r="S14" s="3">
+        <v>36</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3">
+        <v>28</v>
+      </c>
+      <c r="V14" s="3">
+        <v>29</v>
+      </c>
+      <c r="W14" s="3">
+        <v>30</v>
+      </c>
+      <c r="X14" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>34</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>35</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>32</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>34</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3">
+        <v>37</v>
+      </c>
+      <c r="L15" s="2">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2">
+        <v>39</v>
+      </c>
+      <c r="N15" s="2">
+        <v>40</v>
+      </c>
+      <c r="O15" s="2">
+        <v>41</v>
+      </c>
+      <c r="P15" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>43</v>
+      </c>
+      <c r="R15" s="2">
+        <v>44</v>
+      </c>
+      <c r="S15" s="3">
+        <v>45</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3">
+        <v>37</v>
+      </c>
+      <c r="V15" s="2">
+        <v>38</v>
+      </c>
+      <c r="W15" s="2">
+        <v>39</v>
+      </c>
+      <c r="X15" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>43</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3">
+        <v>52</v>
+      </c>
+      <c r="H16" s="3">
+        <v>53</v>
+      </c>
+      <c r="I16" s="3">
+        <v>54</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3">
+        <v>46</v>
+      </c>
+      <c r="L16" s="3">
+        <v>47</v>
+      </c>
+      <c r="M16" s="3">
+        <v>48</v>
+      </c>
+      <c r="N16" s="3">
+        <v>49</v>
+      </c>
+      <c r="O16" s="2">
+        <v>50</v>
+      </c>
+      <c r="P16" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>52</v>
+      </c>
+      <c r="R16" s="3">
+        <v>53</v>
+      </c>
+      <c r="S16" s="3">
+        <v>54</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="3">
+        <v>46</v>
+      </c>
+      <c r="V16" s="3">
+        <v>47</v>
+      </c>
+      <c r="W16" s="3">
+        <v>48</v>
+      </c>
+      <c r="X16" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>54</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>48</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>50</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>52</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
+        <v>61</v>
+      </c>
+      <c r="H17" s="3">
+        <v>62</v>
+      </c>
+      <c r="I17" s="3">
+        <v>63</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3">
+        <v>55</v>
+      </c>
+      <c r="L17" s="3">
+        <v>56</v>
+      </c>
+      <c r="M17" s="3">
+        <v>57</v>
+      </c>
+      <c r="N17" s="3">
+        <v>58</v>
+      </c>
+      <c r="O17" s="2">
+        <v>59</v>
+      </c>
+      <c r="P17" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>61</v>
+      </c>
+      <c r="R17" s="3">
+        <v>62</v>
+      </c>
+      <c r="S17" s="3">
+        <v>63</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="3">
+        <v>55</v>
+      </c>
+      <c r="V17" s="3">
+        <v>56</v>
+      </c>
+      <c r="W17" s="3">
+        <v>57</v>
+      </c>
+      <c r="X17" s="3">
+        <v>58</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>57</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>61</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3">
+        <v>68</v>
+      </c>
+      <c r="F18" s="3">
+        <v>69</v>
+      </c>
+      <c r="G18" s="3">
+        <v>70</v>
+      </c>
+      <c r="H18" s="3">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3">
+        <v>72</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3">
+        <v>64</v>
+      </c>
+      <c r="L18" s="3">
+        <v>65</v>
+      </c>
+      <c r="M18" s="3">
+        <v>66</v>
+      </c>
+      <c r="N18" s="3">
+        <v>67</v>
+      </c>
+      <c r="O18" s="2">
+        <v>68</v>
+      </c>
+      <c r="P18" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>70</v>
+      </c>
+      <c r="R18" s="3">
+        <v>71</v>
+      </c>
+      <c r="S18" s="3">
+        <v>72</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="3">
+        <v>64</v>
+      </c>
+      <c r="V18" s="3">
+        <v>65</v>
+      </c>
+      <c r="W18" s="3">
+        <v>66</v>
+      </c>
+      <c r="X18" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>72</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3">
+        <v>77</v>
+      </c>
+      <c r="F19" s="3">
+        <v>78</v>
+      </c>
+      <c r="G19" s="3">
+        <v>79</v>
+      </c>
+      <c r="H19" s="3">
+        <v>80</v>
+      </c>
+      <c r="I19" s="3">
+        <v>81</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3">
+        <v>73</v>
+      </c>
+      <c r="L19" s="3">
+        <v>74</v>
+      </c>
+      <c r="M19" s="3">
+        <v>75</v>
+      </c>
+      <c r="N19" s="3">
+        <v>76</v>
+      </c>
+      <c r="O19" s="3">
+        <v>77</v>
+      </c>
+      <c r="P19" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>79</v>
+      </c>
+      <c r="R19" s="3">
+        <v>80</v>
+      </c>
+      <c r="S19" s="3">
+        <v>81</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="3">
+        <v>73</v>
+      </c>
+      <c r="V19" s="3">
+        <v>74</v>
+      </c>
+      <c r="W19" s="3">
+        <v>75</v>
+      </c>
+      <c r="X19" s="3">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>80</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>81</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>7</v>
+      </c>
+      <c r="R21" s="3">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
+        <v>9</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <v>2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2">
+        <v>14</v>
+      </c>
+      <c r="P22" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3">
+        <v>17</v>
+      </c>
+      <c r="S22" s="3">
+        <v>18</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="3">
+        <v>10</v>
+      </c>
+      <c r="V22" s="3">
+        <v>11</v>
+      </c>
+      <c r="W22" s="3">
+        <v>12</v>
+      </c>
+      <c r="X22" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>18</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
+      <c r="F23" s="3">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3">
+        <v>27</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3">
+        <v>21</v>
+      </c>
+      <c r="N23" s="3">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2">
+        <v>23</v>
+      </c>
+      <c r="P23" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>25</v>
+      </c>
+      <c r="R23" s="3">
+        <v>26</v>
+      </c>
+      <c r="S23" s="3">
+        <v>27</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="3">
+        <v>19</v>
+      </c>
+      <c r="V23" s="3">
+        <v>20</v>
+      </c>
+      <c r="W23" s="3">
+        <v>21</v>
+      </c>
+      <c r="X23" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>21</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>23</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>24</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>25</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3">
+        <v>33</v>
+      </c>
+      <c r="G24" s="3">
+        <v>34</v>
+      </c>
+      <c r="H24" s="3">
+        <v>35</v>
+      </c>
+      <c r="I24" s="3">
+        <v>36</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3">
+        <v>29</v>
+      </c>
+      <c r="M24" s="3">
+        <v>30</v>
+      </c>
+      <c r="N24" s="3">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2">
+        <v>32</v>
+      </c>
+      <c r="P24" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>34</v>
+      </c>
+      <c r="R24" s="3">
+        <v>35</v>
+      </c>
+      <c r="S24" s="3">
+        <v>36</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="3">
+        <v>28</v>
+      </c>
+      <c r="V24" s="3">
+        <v>29</v>
+      </c>
+      <c r="W24" s="3">
+        <v>30</v>
+      </c>
+      <c r="X24" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>32</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>34</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>35</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>32</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>34</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3">
+        <v>42</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3">
+        <v>37</v>
+      </c>
+      <c r="L25" s="3">
+        <v>38</v>
+      </c>
+      <c r="M25" s="3">
+        <v>39</v>
+      </c>
+      <c r="N25" s="3">
+        <v>40</v>
+      </c>
+      <c r="O25" s="2">
+        <v>41</v>
+      </c>
+      <c r="P25" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>43</v>
+      </c>
+      <c r="R25" s="2">
+        <v>44</v>
+      </c>
+      <c r="S25" s="3">
+        <v>45</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="3">
+        <v>37</v>
+      </c>
+      <c r="V25" s="2">
+        <v>38</v>
+      </c>
+      <c r="W25" s="2">
+        <v>39</v>
+      </c>
+      <c r="X25" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>42</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>43</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>39</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3">
+        <v>51</v>
+      </c>
+      <c r="G26" s="3">
+        <v>52</v>
+      </c>
+      <c r="H26" s="3">
+        <v>53</v>
+      </c>
+      <c r="I26" s="3">
+        <v>54</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3">
+        <v>46</v>
+      </c>
+      <c r="L26" s="3">
+        <v>47</v>
+      </c>
+      <c r="M26" s="3">
+        <v>48</v>
+      </c>
+      <c r="N26" s="3">
+        <v>49</v>
+      </c>
+      <c r="O26" s="3">
+        <v>50</v>
+      </c>
+      <c r="P26" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>52</v>
+      </c>
+      <c r="R26" s="3">
+        <v>53</v>
+      </c>
+      <c r="S26" s="3">
+        <v>54</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="3">
+        <v>46</v>
+      </c>
+      <c r="V26" s="3">
+        <v>47</v>
+      </c>
+      <c r="W26" s="3">
+        <v>48</v>
+      </c>
+      <c r="X26" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>54</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>48</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>50</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>52</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
+        <v>61</v>
+      </c>
+      <c r="H27" s="3">
+        <v>62</v>
+      </c>
+      <c r="I27" s="3">
+        <v>63</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3">
+        <v>55</v>
+      </c>
+      <c r="L27" s="3">
+        <v>56</v>
+      </c>
+      <c r="M27" s="3">
+        <v>57</v>
+      </c>
+      <c r="N27" s="3">
+        <v>58</v>
+      </c>
+      <c r="O27" s="3">
+        <v>59</v>
+      </c>
+      <c r="P27" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>61</v>
+      </c>
+      <c r="R27" s="3">
+        <v>62</v>
+      </c>
+      <c r="S27" s="3">
+        <v>63</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="3">
+        <v>55</v>
+      </c>
+      <c r="V27" s="3">
+        <v>56</v>
+      </c>
+      <c r="W27" s="3">
+        <v>57</v>
+      </c>
+      <c r="X27" s="3">
+        <v>58</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>57</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>61</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3">
+        <v>69</v>
+      </c>
+      <c r="G28" s="3">
+        <v>70</v>
+      </c>
+      <c r="H28" s="3">
+        <v>71</v>
+      </c>
+      <c r="I28" s="3">
+        <v>72</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3">
+        <v>64</v>
+      </c>
+      <c r="L28" s="3">
+        <v>65</v>
+      </c>
+      <c r="M28" s="3">
+        <v>66</v>
+      </c>
+      <c r="N28" s="3">
+        <v>67</v>
+      </c>
+      <c r="O28" s="3">
+        <v>68</v>
+      </c>
+      <c r="P28" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>70</v>
+      </c>
+      <c r="R28" s="3">
+        <v>71</v>
+      </c>
+      <c r="S28" s="3">
+        <v>72</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="3">
+        <v>64</v>
+      </c>
+      <c r="V28" s="3">
+        <v>65</v>
+      </c>
+      <c r="W28" s="3">
+        <v>66</v>
+      </c>
+      <c r="X28" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>72</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>73</v>
+      </c>
+      <c r="B29" s="3">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3">
+        <v>76</v>
+      </c>
+      <c r="E29" s="3">
+        <v>77</v>
+      </c>
+      <c r="F29" s="3">
+        <v>78</v>
+      </c>
+      <c r="G29" s="3">
+        <v>79</v>
+      </c>
+      <c r="H29" s="3">
+        <v>80</v>
+      </c>
+      <c r="I29" s="3">
+        <v>81</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3">
+        <v>73</v>
+      </c>
+      <c r="L29" s="3">
+        <v>74</v>
+      </c>
+      <c r="M29" s="3">
+        <v>75</v>
+      </c>
+      <c r="N29" s="3">
+        <v>76</v>
+      </c>
+      <c r="O29" s="3">
+        <v>77</v>
+      </c>
+      <c r="P29" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>79</v>
+      </c>
+      <c r="R29" s="3">
+        <v>80</v>
+      </c>
+      <c r="S29" s="3">
+        <v>81</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="3">
+        <v>73</v>
+      </c>
+      <c r="V29" s="3">
+        <v>74</v>
+      </c>
+      <c r="W29" s="3">
+        <v>75</v>
+      </c>
+      <c r="X29" s="3">
+        <v>76</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>80</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>81</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>4</v>
+      </c>
+      <c r="O31" s="3">
+        <v>5</v>
+      </c>
+      <c r="P31" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>7</v>
+      </c>
+      <c r="R31" s="3">
+        <v>8</v>
+      </c>
+      <c r="S31" s="3">
+        <v>9</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>2</v>
+      </c>
+      <c r="W31" s="3">
+        <v>3</v>
+      </c>
+      <c r="X31" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3">
+        <v>16</v>
+      </c>
+      <c r="H32" s="3">
+        <v>17</v>
+      </c>
+      <c r="I32" s="3">
+        <v>18</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <v>11</v>
+      </c>
+      <c r="M32" s="3">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3">
+        <v>13</v>
+      </c>
+      <c r="O32" s="3">
+        <v>14</v>
+      </c>
+      <c r="P32" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>16</v>
+      </c>
+      <c r="R32" s="3">
+        <v>17</v>
+      </c>
+      <c r="S32" s="3">
+        <v>18</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="3">
+        <v>10</v>
+      </c>
+      <c r="V32" s="3">
+        <v>11</v>
+      </c>
+      <c r="W32" s="3">
+        <v>12</v>
+      </c>
+      <c r="X32" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3">
+        <v>23</v>
+      </c>
+      <c r="F33" s="3">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3">
+        <v>25</v>
+      </c>
+      <c r="H33" s="3">
+        <v>26</v>
+      </c>
+      <c r="I33" s="3">
+        <v>27</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3">
+        <v>19</v>
+      </c>
+      <c r="L33" s="3">
+        <v>20</v>
+      </c>
+      <c r="M33" s="3">
+        <v>21</v>
+      </c>
+      <c r="N33" s="3">
+        <v>22</v>
+      </c>
+      <c r="O33" s="3">
+        <v>23</v>
+      </c>
+      <c r="P33" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>25</v>
+      </c>
+      <c r="R33" s="3">
+        <v>26</v>
+      </c>
+      <c r="S33" s="3">
+        <v>27</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="3">
+        <v>19</v>
+      </c>
+      <c r="V33" s="3">
+        <v>20</v>
+      </c>
+      <c r="W33" s="3">
+        <v>21</v>
+      </c>
+      <c r="X33" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3">
+        <v>34</v>
+      </c>
+      <c r="H34" s="3">
+        <v>35</v>
+      </c>
+      <c r="I34" s="3">
+        <v>36</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3">
+        <v>28</v>
+      </c>
+      <c r="L34" s="3">
+        <v>29</v>
+      </c>
+      <c r="M34" s="3">
+        <v>30</v>
+      </c>
+      <c r="N34" s="3">
+        <v>31</v>
+      </c>
+      <c r="O34" s="3">
+        <v>32</v>
+      </c>
+      <c r="P34" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>34</v>
+      </c>
+      <c r="R34" s="3">
+        <v>35</v>
+      </c>
+      <c r="S34" s="3">
+        <v>36</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="3">
+        <v>28</v>
+      </c>
+      <c r="V34" s="3">
+        <v>29</v>
+      </c>
+      <c r="W34" s="3">
+        <v>30</v>
+      </c>
+      <c r="X34" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>35</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3">
+        <v>40</v>
+      </c>
+      <c r="E35" s="3">
+        <v>41</v>
+      </c>
+      <c r="F35" s="3">
+        <v>42</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3">
+        <v>37</v>
+      </c>
+      <c r="L35" s="3">
+        <v>38</v>
+      </c>
+      <c r="M35" s="3">
+        <v>39</v>
+      </c>
+      <c r="N35" s="3">
+        <v>40</v>
+      </c>
+      <c r="O35" s="3">
+        <v>41</v>
+      </c>
+      <c r="P35" s="3">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>43</v>
+      </c>
+      <c r="R35" s="3">
+        <v>44</v>
+      </c>
+      <c r="S35" s="3">
+        <v>45</v>
+      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="3">
+        <v>37</v>
+      </c>
+      <c r="V35" s="3">
+        <v>38</v>
+      </c>
+      <c r="W35" s="3">
+        <v>39</v>
+      </c>
+      <c r="X35" s="3">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>41</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>42</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>43</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3">
+        <v>48</v>
+      </c>
+      <c r="D36" s="3">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3">
+        <v>51</v>
+      </c>
+      <c r="G36" s="3">
+        <v>52</v>
+      </c>
+      <c r="H36" s="3">
+        <v>53</v>
+      </c>
+      <c r="I36" s="3">
+        <v>54</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3">
+        <v>46</v>
+      </c>
+      <c r="L36" s="3">
+        <v>47</v>
+      </c>
+      <c r="M36" s="3">
+        <v>48</v>
+      </c>
+      <c r="N36" s="3">
+        <v>49</v>
+      </c>
+      <c r="O36" s="3">
+        <v>50</v>
+      </c>
+      <c r="P36" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>52</v>
+      </c>
+      <c r="R36" s="3">
+        <v>53</v>
+      </c>
+      <c r="S36" s="3">
+        <v>54</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="3">
+        <v>46</v>
+      </c>
+      <c r="V36" s="3">
+        <v>47</v>
+      </c>
+      <c r="W36" s="3">
+        <v>48</v>
+      </c>
+      <c r="X36" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3">
+        <v>57</v>
+      </c>
+      <c r="D37" s="3">
+        <v>58</v>
+      </c>
+      <c r="E37" s="3">
+        <v>59</v>
+      </c>
+      <c r="F37" s="3">
+        <v>60</v>
+      </c>
+      <c r="G37" s="3">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3">
+        <v>62</v>
+      </c>
+      <c r="I37" s="3">
+        <v>63</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3">
+        <v>55</v>
+      </c>
+      <c r="L37" s="3">
+        <v>56</v>
+      </c>
+      <c r="M37" s="3">
+        <v>57</v>
+      </c>
+      <c r="N37" s="3">
+        <v>58</v>
+      </c>
+      <c r="O37" s="3">
+        <v>59</v>
+      </c>
+      <c r="P37" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>61</v>
+      </c>
+      <c r="R37" s="3">
+        <v>62</v>
+      </c>
+      <c r="S37" s="3">
+        <v>63</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="3">
+        <v>55</v>
+      </c>
+      <c r="V37" s="3">
+        <v>56</v>
+      </c>
+      <c r="W37" s="3">
+        <v>57</v>
+      </c>
+      <c r="X37" s="3">
+        <v>58</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>59</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3">
+        <v>66</v>
+      </c>
+      <c r="D38" s="3">
+        <v>67</v>
+      </c>
+      <c r="E38" s="3">
+        <v>68</v>
+      </c>
+      <c r="F38" s="3">
+        <v>69</v>
+      </c>
+      <c r="G38" s="3">
+        <v>70</v>
+      </c>
+      <c r="H38" s="3">
+        <v>71</v>
+      </c>
+      <c r="I38" s="3">
+        <v>72</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3">
+        <v>64</v>
+      </c>
+      <c r="L38" s="3">
+        <v>65</v>
+      </c>
+      <c r="M38" s="3">
+        <v>66</v>
+      </c>
+      <c r="N38" s="3">
+        <v>67</v>
+      </c>
+      <c r="O38" s="3">
+        <v>68</v>
+      </c>
+      <c r="P38" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>70</v>
+      </c>
+      <c r="R38" s="3">
+        <v>71</v>
+      </c>
+      <c r="S38" s="3">
+        <v>72</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="3">
+        <v>64</v>
+      </c>
+      <c r="V38" s="3">
+        <v>65</v>
+      </c>
+      <c r="W38" s="3">
+        <v>66</v>
+      </c>
+      <c r="X38" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>68</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3">
+        <v>76</v>
+      </c>
+      <c r="E39" s="3">
+        <v>77</v>
+      </c>
+      <c r="F39" s="3">
+        <v>78</v>
+      </c>
+      <c r="G39" s="3">
+        <v>79</v>
+      </c>
+      <c r="H39" s="3">
+        <v>80</v>
+      </c>
+      <c r="I39" s="3">
+        <v>81</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3">
+        <v>73</v>
+      </c>
+      <c r="L39" s="3">
+        <v>74</v>
+      </c>
+      <c r="M39" s="3">
+        <v>75</v>
+      </c>
+      <c r="N39" s="3">
+        <v>76</v>
+      </c>
+      <c r="O39" s="3">
+        <v>77</v>
+      </c>
+      <c r="P39" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>79</v>
+      </c>
+      <c r="R39" s="3">
+        <v>80</v>
+      </c>
+      <c r="S39" s="3">
+        <v>81</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="3">
+        <v>73</v>
+      </c>
+      <c r="V39" s="3">
+        <v>74</v>
+      </c>
+      <c r="W39" s="3">
+        <v>75</v>
+      </c>
+      <c r="X39" s="3">
+        <v>76</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>80</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PatternNumber.xlsx
+++ b/PatternNumber.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Git\PreExperimentProgram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\PreExperimentProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="0" windowWidth="19320" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="0" windowWidth="19320" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2915,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2926,7 +2926,7 @@
     <col min="1" max="56" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -3010,8 +3010,35 @@
       <c r="AC1" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -3052,7 +3079,7 @@
       <c r="N2" s="3">
         <v>13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>14</v>
       </c>
       <c r="P2" s="3">
@@ -3080,7 +3107,7 @@
       <c r="X2" s="3">
         <v>13</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="3">
         <v>14</v>
       </c>
       <c r="Z2" s="3">
@@ -3095,8 +3122,35 @@
       <c r="AC2" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>19</v>
       </c>
@@ -3159,19 +3213,19 @@
       <c r="V3" s="3">
         <v>20</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>21</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="2">
         <v>22</v>
       </c>
       <c r="Y3" s="2">
         <v>23</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>24</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2">
         <v>25</v>
       </c>
       <c r="AB3" s="3">
@@ -3180,8 +3234,35 @@
       <c r="AC3" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>28</v>
       </c>
@@ -3250,7 +3331,7 @@
       <c r="X4" s="3">
         <v>31</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3">
         <v>32</v>
       </c>
       <c r="Z4" s="3">
@@ -3265,12 +3346,39 @@
       <c r="AC4" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>37</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>38</v>
       </c>
       <c r="C5" s="2">
@@ -3288,7 +3396,7 @@
       <c r="G5" s="2">
         <v>43</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>44</v>
       </c>
       <c r="I5" s="3">
@@ -3326,32 +3434,59 @@
       <c r="U5" s="3">
         <v>37</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="3">
         <v>38</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3">
         <v>39</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="3">
         <v>40</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="3">
         <v>41</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="3">
         <v>42</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="3">
         <v>43</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="3">
         <v>44</v>
       </c>
       <c r="AC5" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>41</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>44</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>46</v>
       </c>
@@ -3420,7 +3555,7 @@
       <c r="X6" s="3">
         <v>49</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3">
         <v>50</v>
       </c>
       <c r="Z6" s="3">
@@ -3435,8 +3570,35 @@
       <c r="AC6" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>55</v>
       </c>
@@ -3499,19 +3661,19 @@
       <c r="V7" s="3">
         <v>56</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <v>57</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="2">
         <v>58</v>
       </c>
       <c r="Y7" s="2">
         <v>59</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="2">
         <v>60</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="2">
         <v>61</v>
       </c>
       <c r="AB7" s="3">
@@ -3520,8 +3682,35 @@
       <c r="AC7" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>59</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>64</v>
       </c>
@@ -3562,7 +3751,7 @@
       <c r="N8" s="3">
         <v>67</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>68</v>
       </c>
       <c r="P8" s="3">
@@ -3590,7 +3779,7 @@
       <c r="X8" s="3">
         <v>67</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="3">
         <v>68</v>
       </c>
       <c r="Z8" s="3">
@@ -3605,8 +3794,35 @@
       <c r="AC8" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>73</v>
       </c>
@@ -3690,8 +3906,35 @@
       <c r="AC9" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3722,7 +3965,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -3806,6 +4049,7 @@
       <c r="AC11" s="3">
         <v>9</v>
       </c>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="3">
         <v>1</v>
       </c>
@@ -3833,8 +4077,9 @@
       <c r="AM11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3847,7 +4092,7 @@
       <c r="D12" s="3">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>14</v>
       </c>
       <c r="F12" s="3">
@@ -3903,7 +4148,7 @@
       <c r="X12" s="3">
         <v>13</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="3">
         <v>14</v>
       </c>
       <c r="Z12" s="3">
@@ -3918,6 +4163,7 @@
       <c r="AC12" s="3">
         <v>18</v>
       </c>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="3">
         <v>10</v>
       </c>
@@ -3930,7 +4176,7 @@
       <c r="AH12" s="3">
         <v>13</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12" s="3">
         <v>14</v>
       </c>
       <c r="AJ12" s="3">
@@ -3945,21 +4191,22 @@
       <c r="AM12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>22</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>23</v>
       </c>
       <c r="F13" s="3">
@@ -3993,7 +4240,7 @@
       <c r="P13" s="3">
         <v>24</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>25</v>
       </c>
       <c r="R13" s="3">
@@ -4009,19 +4256,19 @@
       <c r="V13" s="3">
         <v>20</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <v>21</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <v>22</v>
       </c>
       <c r="Y13" s="2">
         <v>23</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="2">
         <v>24</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="2">
         <v>25</v>
       </c>
       <c r="AB13" s="3">
@@ -4030,25 +4277,26 @@
       <c r="AC13" s="3">
         <v>27</v>
       </c>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="3">
         <v>19</v>
       </c>
       <c r="AF13" s="3">
         <v>20</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13" s="2">
         <v>21</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH13" s="2">
         <v>22</v>
       </c>
       <c r="AI13" s="2">
         <v>23</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="2">
         <v>24</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK13" s="2">
         <v>25</v>
       </c>
       <c r="AL13" s="3">
@@ -4057,21 +4305,22 @@
       <c r="AM13" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>29</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="3">
         <v>31</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>32</v>
       </c>
       <c r="F14" s="3">
@@ -4105,7 +4354,7 @@
       <c r="P14" s="3">
         <v>33</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>34</v>
       </c>
       <c r="R14" s="3">
@@ -4121,13 +4370,13 @@
       <c r="V14" s="3">
         <v>29</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <v>30</v>
       </c>
       <c r="X14" s="3">
         <v>31</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="3">
         <v>32</v>
       </c>
       <c r="Z14" s="3">
@@ -4142,6 +4391,7 @@
       <c r="AC14" s="3">
         <v>36</v>
       </c>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="3">
         <v>28</v>
       </c>
@@ -4154,13 +4404,13 @@
       <c r="AH14" s="3">
         <v>31</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AI14" s="3">
         <v>32</v>
       </c>
       <c r="AJ14" s="3">
         <v>33</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK14" s="2">
         <v>34</v>
       </c>
       <c r="AL14" s="3">
@@ -4169,30 +4419,31 @@
       <c r="AM14" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>37</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>39</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>40</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>41</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>42</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>44</v>
       </c>
       <c r="I15" s="3">
@@ -4202,25 +4453,25 @@
       <c r="K15" s="3">
         <v>37</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>38</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>39</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <v>40</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <v>41</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3">
         <v>42</v>
       </c>
       <c r="Q15" s="2">
         <v>43</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="3">
         <v>44</v>
       </c>
       <c r="S15" s="3">
@@ -4230,16 +4481,16 @@
       <c r="U15" s="3">
         <v>37</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="3">
         <v>38</v>
       </c>
       <c r="W15" s="2">
         <v>39</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="3">
         <v>40</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="3">
         <v>41</v>
       </c>
       <c r="Z15" s="3">
@@ -4254,6 +4505,7 @@
       <c r="AC15" s="3">
         <v>45</v>
       </c>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="3">
         <v>37</v>
       </c>
@@ -4266,30 +4518,31 @@
       <c r="AH15" s="3">
         <v>40</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15" s="3">
         <v>41</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ15" s="3">
         <v>42</v>
       </c>
       <c r="AK15" s="2">
         <v>43</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL15" s="3">
         <v>44</v>
       </c>
       <c r="AM15" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>46</v>
       </c>
       <c r="B16" s="3">
         <v>47</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>48</v>
       </c>
       <c r="D16" s="3">
@@ -4323,13 +4576,13 @@
       <c r="N16" s="3">
         <v>49</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3">
         <v>50</v>
       </c>
       <c r="P16" s="3">
         <v>51</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>52</v>
       </c>
       <c r="R16" s="3">
@@ -4345,13 +4598,13 @@
       <c r="V16" s="3">
         <v>47</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <v>48</v>
       </c>
       <c r="X16" s="3">
         <v>49</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="3">
         <v>50</v>
       </c>
       <c r="Z16" s="3">
@@ -4366,6 +4619,7 @@
       <c r="AC16" s="3">
         <v>54</v>
       </c>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="3">
         <v>46</v>
       </c>
@@ -4378,13 +4632,13 @@
       <c r="AH16" s="3">
         <v>49</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AI16" s="3">
         <v>50</v>
       </c>
       <c r="AJ16" s="3">
         <v>51</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK16" s="2">
         <v>52</v>
       </c>
       <c r="AL16" s="3">
@@ -4393,27 +4647,28 @@
       <c r="AM16" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN16" s="4"/>
+    </row>
+    <row r="17" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>55</v>
       </c>
       <c r="B17" s="3">
         <v>56</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>57</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>58</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>59</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>60</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>61</v>
       </c>
       <c r="H17" s="3">
@@ -4429,19 +4684,19 @@
       <c r="L17" s="3">
         <v>56</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>57</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>58</v>
       </c>
       <c r="O17" s="2">
         <v>59</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>60</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>61</v>
       </c>
       <c r="R17" s="3">
@@ -4457,13 +4712,13 @@
       <c r="V17" s="3">
         <v>56</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="2">
         <v>57</v>
       </c>
       <c r="X17" s="3">
         <v>58</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="3">
         <v>59</v>
       </c>
       <c r="Z17" s="3">
@@ -4478,6 +4733,7 @@
       <c r="AC17" s="3">
         <v>63</v>
       </c>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="3">
         <v>55</v>
       </c>
@@ -4490,13 +4746,13 @@
       <c r="AH17" s="3">
         <v>58</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AI17" s="3">
         <v>59</v>
       </c>
       <c r="AJ17" s="3">
         <v>60</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK17" s="2">
         <v>61</v>
       </c>
       <c r="AL17" s="3">
@@ -4505,8 +4761,9 @@
       <c r="AM17" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN17" s="4"/>
+    </row>
+    <row r="18" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>64</v>
       </c>
@@ -4547,7 +4804,7 @@
       <c r="N18" s="3">
         <v>67</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3">
         <v>68</v>
       </c>
       <c r="P18" s="3">
@@ -4575,7 +4832,7 @@
       <c r="X18" s="3">
         <v>67</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="3">
         <v>68</v>
       </c>
       <c r="Z18" s="3">
@@ -4590,6 +4847,7 @@
       <c r="AC18" s="3">
         <v>72</v>
       </c>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="3">
         <v>64</v>
       </c>
@@ -4602,7 +4860,7 @@
       <c r="AH18" s="3">
         <v>67</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AI18" s="3">
         <v>68</v>
       </c>
       <c r="AJ18" s="3">
@@ -4617,8 +4875,9 @@
       <c r="AM18" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN18" s="4"/>
+    </row>
+    <row r="19" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>73</v>
       </c>
@@ -4702,6 +4961,7 @@
       <c r="AC19" s="3">
         <v>81</v>
       </c>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="3">
         <v>73</v>
       </c>
@@ -4729,8 +4989,9 @@
       <c r="AM19" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN19" s="4"/>
+    </row>
+    <row r="20" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4760,8 +5021,19 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+    </row>
+    <row r="21" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -4845,6 +5117,7 @@
       <c r="AC21" s="3">
         <v>9</v>
       </c>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="3">
         <v>1</v>
       </c>
@@ -4872,8 +5145,9 @@
       <c r="AM21" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN21" s="4"/>
+    </row>
+    <row r="22" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>10</v>
       </c>
@@ -4886,7 +5160,7 @@
       <c r="D22" s="3">
         <v>13</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>14</v>
       </c>
       <c r="F22" s="3">
@@ -4914,7 +5188,7 @@
       <c r="N22" s="3">
         <v>13</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="3">
         <v>14</v>
       </c>
       <c r="P22" s="3">
@@ -4957,6 +5231,7 @@
       <c r="AC22" s="3">
         <v>18</v>
       </c>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="3">
         <v>10</v>
       </c>
@@ -4984,27 +5259,28 @@
       <c r="AM22" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN22" s="4"/>
+    </row>
+    <row r="23" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>22</v>
       </c>
       <c r="E23" s="2">
         <v>23</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>24</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>25</v>
       </c>
       <c r="H23" s="3">
@@ -5048,7 +5324,7 @@
       <c r="V23" s="3">
         <v>20</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="2">
         <v>21</v>
       </c>
       <c r="X23" s="3">
@@ -5069,6 +5345,7 @@
       <c r="AC23" s="3">
         <v>27</v>
       </c>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="3">
         <v>19</v>
       </c>
@@ -5087,7 +5364,7 @@
       <c r="AJ23" s="3">
         <v>24</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AK23" s="2">
         <v>25</v>
       </c>
       <c r="AL23" s="3">
@@ -5096,8 +5373,9 @@
       <c r="AM23" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN23" s="4"/>
+    </row>
+    <row r="24" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -5160,7 +5438,7 @@
       <c r="V24" s="3">
         <v>29</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="2">
         <v>30</v>
       </c>
       <c r="X24" s="3">
@@ -5181,6 +5459,7 @@
       <c r="AC24" s="3">
         <v>36</v>
       </c>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="3">
         <v>28</v>
       </c>
@@ -5199,7 +5478,7 @@
       <c r="AJ24" s="3">
         <v>33</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK24" s="2">
         <v>34</v>
       </c>
       <c r="AL24" s="3">
@@ -5208,18 +5487,19 @@
       <c r="AM24" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN24" s="4"/>
+    </row>
+    <row r="25" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>37</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>38</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>39</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>40</v>
       </c>
       <c r="E25" s="2">
@@ -5253,13 +5533,13 @@
       <c r="O25" s="2">
         <v>41</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="3">
         <v>42</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="3">
         <v>43</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="3">
         <v>44</v>
       </c>
       <c r="S25" s="3">
@@ -5269,7 +5549,7 @@
       <c r="U25" s="3">
         <v>37</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="3">
         <v>38</v>
       </c>
       <c r="W25" s="2">
@@ -5281,10 +5561,10 @@
       <c r="Y25" s="2">
         <v>41</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="2">
         <v>42</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="2">
         <v>43</v>
       </c>
       <c r="AB25" s="3">
@@ -5293,16 +5573,17 @@
       <c r="AC25" s="3">
         <v>45</v>
       </c>
+      <c r="AD25" s="4"/>
       <c r="AE25" s="3">
         <v>37</v>
       </c>
       <c r="AF25" s="3">
         <v>38</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG25" s="2">
         <v>39</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AH25" s="2">
         <v>40</v>
       </c>
       <c r="AI25" s="2">
@@ -5314,14 +5595,15 @@
       <c r="AK25" s="2">
         <v>43</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="3">
         <v>44</v>
       </c>
       <c r="AM25" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN25" s="4"/>
+    </row>
+    <row r="26" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>46</v>
       </c>
@@ -5334,7 +5616,7 @@
       <c r="D26" s="3">
         <v>49</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>50</v>
       </c>
       <c r="F26" s="3">
@@ -5362,7 +5644,7 @@
       <c r="N26" s="3">
         <v>49</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <v>50</v>
       </c>
       <c r="P26" s="3">
@@ -5384,13 +5666,13 @@
       <c r="V26" s="3">
         <v>47</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="2">
         <v>48</v>
       </c>
       <c r="X26" s="3">
         <v>49</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="3">
         <v>50</v>
       </c>
       <c r="Z26" s="3">
@@ -5405,6 +5687,7 @@
       <c r="AC26" s="3">
         <v>54</v>
       </c>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="3">
         <v>46</v>
       </c>
@@ -5417,13 +5700,13 @@
       <c r="AH26" s="3">
         <v>49</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="3">
         <v>50</v>
       </c>
       <c r="AJ26" s="3">
         <v>51</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AK26" s="2">
         <v>52</v>
       </c>
       <c r="AL26" s="3">
@@ -5432,8 +5715,9 @@
       <c r="AM26" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN26" s="4"/>
+    </row>
+    <row r="27" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>55</v>
       </c>
@@ -5446,7 +5730,7 @@
       <c r="D27" s="3">
         <v>58</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>59</v>
       </c>
       <c r="F27" s="3">
@@ -5468,19 +5752,19 @@
       <c r="L27" s="3">
         <v>56</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>57</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>58</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>59</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <v>60</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2">
         <v>61</v>
       </c>
       <c r="R27" s="3">
@@ -5496,13 +5780,13 @@
       <c r="V27" s="3">
         <v>56</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="2">
         <v>57</v>
       </c>
       <c r="X27" s="3">
         <v>58</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="3">
         <v>59</v>
       </c>
       <c r="Z27" s="3">
@@ -5517,6 +5801,7 @@
       <c r="AC27" s="3">
         <v>63</v>
       </c>
+      <c r="AD27" s="4"/>
       <c r="AE27" s="3">
         <v>55</v>
       </c>
@@ -5529,13 +5814,13 @@
       <c r="AH27" s="3">
         <v>58</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI27" s="3">
         <v>59</v>
       </c>
       <c r="AJ27" s="3">
         <v>60</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AK27" s="2">
         <v>61</v>
       </c>
       <c r="AL27" s="3">
@@ -5544,8 +5829,9 @@
       <c r="AM27" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN27" s="4"/>
+    </row>
+    <row r="28" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>64</v>
       </c>
@@ -5614,7 +5900,7 @@
       <c r="X28" s="3">
         <v>67</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="3">
         <v>68</v>
       </c>
       <c r="Z28" s="3">
@@ -5629,6 +5915,7 @@
       <c r="AC28" s="3">
         <v>72</v>
       </c>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="3">
         <v>64</v>
       </c>
@@ -5641,7 +5928,7 @@
       <c r="AH28" s="3">
         <v>67</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AI28" s="3">
         <v>68</v>
       </c>
       <c r="AJ28" s="3">
@@ -5656,8 +5943,9 @@
       <c r="AM28" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN28" s="4"/>
+    </row>
+    <row r="29" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>73</v>
       </c>
@@ -5741,6 +6029,7 @@
       <c r="AC29" s="3">
         <v>81</v>
       </c>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="3">
         <v>73</v>
       </c>
@@ -5768,8 +6057,9 @@
       <c r="AM29" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN29" s="4"/>
+    </row>
+    <row r="30" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5800,7 +6090,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -5884,8 +6174,35 @@
       <c r="AC31" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>10</v>
       </c>
@@ -5969,15 +6286,42 @@
       <c r="AC32" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>19</v>
       </c>
       <c r="B33" s="3">
         <v>20</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>21</v>
       </c>
       <c r="D33" s="3">
@@ -5989,7 +6333,7 @@
       <c r="F33" s="3">
         <v>24</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>25</v>
       </c>
       <c r="H33" s="3">
@@ -6005,19 +6349,19 @@
       <c r="L33" s="3">
         <v>20</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>21</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <v>22</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <v>23</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <v>24</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="2">
         <v>25</v>
       </c>
       <c r="R33" s="3">
@@ -6033,19 +6377,19 @@
       <c r="V33" s="3">
         <v>20</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="2">
         <v>21</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <v>22</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="2">
         <v>23</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="2">
         <v>24</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="2">
         <v>25</v>
       </c>
       <c r="AB33" s="3">
@@ -6054,15 +6398,42 @@
       <c r="AC33" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>22</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>24</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>28</v>
       </c>
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>30</v>
       </c>
       <c r="D34" s="3">
@@ -6074,7 +6445,7 @@
       <c r="F34" s="3">
         <v>33</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>34</v>
       </c>
       <c r="H34" s="3">
@@ -6090,7 +6461,7 @@
       <c r="L34" s="3">
         <v>29</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>30</v>
       </c>
       <c r="N34" s="3">
@@ -6130,7 +6501,7 @@
       <c r="Z34" s="3">
         <v>33</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34" s="2">
         <v>34</v>
       </c>
       <c r="AB34" s="3">
@@ -6139,15 +6510,42 @@
       <c r="AC34" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>32</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>37</v>
       </c>
       <c r="B35" s="3">
         <v>38</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>39</v>
       </c>
       <c r="D35" s="3">
@@ -6159,7 +6557,7 @@
       <c r="F35" s="3">
         <v>42</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>43</v>
       </c>
       <c r="H35" s="3">
@@ -6175,7 +6573,7 @@
       <c r="L35" s="3">
         <v>38</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>39</v>
       </c>
       <c r="N35" s="3">
@@ -6215,7 +6613,7 @@
       <c r="Z35" s="3">
         <v>42</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="2">
         <v>43</v>
       </c>
       <c r="AB35" s="3">
@@ -6224,15 +6622,42 @@
       <c r="AC35" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>41</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>42</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>44</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>46</v>
       </c>
       <c r="B36" s="3">
         <v>47</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>48</v>
       </c>
       <c r="D36" s="3">
@@ -6244,7 +6669,7 @@
       <c r="F36" s="3">
         <v>51</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>52</v>
       </c>
       <c r="H36" s="3">
@@ -6260,7 +6685,7 @@
       <c r="L36" s="3">
         <v>47</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>48</v>
       </c>
       <c r="N36" s="3">
@@ -6300,7 +6725,7 @@
       <c r="Z36" s="3">
         <v>51</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AA36" s="2">
         <v>52</v>
       </c>
       <c r="AB36" s="3">
@@ -6309,27 +6734,54 @@
       <c r="AC36" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE36" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>50</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>55</v>
       </c>
       <c r="B37" s="3">
         <v>56</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>57</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>58</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>59</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>60</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>61</v>
       </c>
       <c r="H37" s="3">
@@ -6345,19 +6797,19 @@
       <c r="L37" s="3">
         <v>56</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>57</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <v>58</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <v>59</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="2">
         <v>60</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="2">
         <v>61</v>
       </c>
       <c r="R37" s="3">
@@ -6373,19 +6825,19 @@
       <c r="V37" s="3">
         <v>56</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="2">
         <v>57</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="2">
         <v>58</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="2">
         <v>59</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z37" s="2">
         <v>60</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA37" s="2">
         <v>61</v>
       </c>
       <c r="AB37" s="3">
@@ -6394,8 +6846,35 @@
       <c r="AC37" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE37" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>59</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>64</v>
       </c>
@@ -6479,8 +6958,35 @@
       <c r="AC38" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE38" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>73</v>
       </c>
@@ -6564,8 +7070,35 @@
       <c r="AC39" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6596,9 +7129,1025 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>9</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>7</v>
+      </c>
+      <c r="R41" s="3">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
+        <v>9</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="3">
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <v>2</v>
+      </c>
+      <c r="W41" s="3">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3">
+        <v>11</v>
+      </c>
+      <c r="M42" s="3">
+        <v>12</v>
+      </c>
+      <c r="N42" s="3">
+        <v>13</v>
+      </c>
+      <c r="O42" s="3">
+        <v>14</v>
+      </c>
+      <c r="P42" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3">
+        <v>17</v>
+      </c>
+      <c r="S42" s="3">
+        <v>18</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="3">
+        <v>10</v>
+      </c>
+      <c r="V42" s="3">
+        <v>11</v>
+      </c>
+      <c r="W42" s="3">
+        <v>12</v>
+      </c>
+      <c r="X42" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>18</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23</v>
+      </c>
+      <c r="F43" s="3">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>26</v>
+      </c>
+      <c r="I43" s="3">
+        <v>27</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3">
+        <v>20</v>
+      </c>
+      <c r="M43" s="2">
+        <v>21</v>
+      </c>
+      <c r="N43" s="2">
+        <v>22</v>
+      </c>
+      <c r="O43" s="2">
+        <v>23</v>
+      </c>
+      <c r="P43" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>25</v>
+      </c>
+      <c r="R43" s="3">
+        <v>26</v>
+      </c>
+      <c r="S43" s="3">
+        <v>27</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="3">
+        <v>19</v>
+      </c>
+      <c r="V43" s="3">
+        <v>20</v>
+      </c>
+      <c r="W43" s="2">
+        <v>21</v>
+      </c>
+      <c r="X43" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>22</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2">
+        <v>34</v>
+      </c>
+      <c r="H44" s="3">
+        <v>35</v>
+      </c>
+      <c r="I44" s="3">
+        <v>36</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3">
+        <v>28</v>
+      </c>
+      <c r="L44" s="3">
+        <v>29</v>
+      </c>
+      <c r="M44" s="2">
+        <v>30</v>
+      </c>
+      <c r="N44" s="3">
+        <v>31</v>
+      </c>
+      <c r="O44" s="3">
+        <v>32</v>
+      </c>
+      <c r="P44" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>34</v>
+      </c>
+      <c r="R44" s="3">
+        <v>35</v>
+      </c>
+      <c r="S44" s="3">
+        <v>36</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="3">
+        <v>28</v>
+      </c>
+      <c r="V44" s="3">
+        <v>29</v>
+      </c>
+      <c r="W44" s="3">
+        <v>30</v>
+      </c>
+      <c r="X44" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>32</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>35</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>32</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42</v>
+      </c>
+      <c r="G45" s="2">
+        <v>43</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3">
+        <v>37</v>
+      </c>
+      <c r="L45" s="3">
+        <v>38</v>
+      </c>
+      <c r="M45" s="2">
+        <v>39</v>
+      </c>
+      <c r="N45" s="2">
+        <v>40</v>
+      </c>
+      <c r="O45" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>43</v>
+      </c>
+      <c r="R45" s="3">
+        <v>44</v>
+      </c>
+      <c r="S45" s="3">
+        <v>45</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="3">
+        <v>37</v>
+      </c>
+      <c r="V45" s="3">
+        <v>38</v>
+      </c>
+      <c r="W45" s="2">
+        <v>39</v>
+      </c>
+      <c r="X45" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>42</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>44</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3">
+        <v>51</v>
+      </c>
+      <c r="G46" s="2">
+        <v>52</v>
+      </c>
+      <c r="H46" s="3">
+        <v>53</v>
+      </c>
+      <c r="I46" s="3">
+        <v>54</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3">
+        <v>46</v>
+      </c>
+      <c r="L46" s="3">
+        <v>47</v>
+      </c>
+      <c r="M46" s="2">
+        <v>48</v>
+      </c>
+      <c r="N46" s="3">
+        <v>49</v>
+      </c>
+      <c r="O46" s="3">
+        <v>50</v>
+      </c>
+      <c r="P46" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>52</v>
+      </c>
+      <c r="R46" s="3">
+        <v>53</v>
+      </c>
+      <c r="S46" s="3">
+        <v>54</v>
+      </c>
+      <c r="T46" s="4"/>
+      <c r="U46" s="3">
+        <v>46</v>
+      </c>
+      <c r="V46" s="3">
+        <v>47</v>
+      </c>
+      <c r="W46" s="3">
+        <v>48</v>
+      </c>
+      <c r="X46" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>52</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>54</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>50</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK46" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>55</v>
+      </c>
+      <c r="B47" s="3">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2">
+        <v>57</v>
+      </c>
+      <c r="D47" s="2">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2">
+        <v>59</v>
+      </c>
+      <c r="F47" s="2">
+        <v>60</v>
+      </c>
+      <c r="G47" s="2">
+        <v>61</v>
+      </c>
+      <c r="H47" s="3">
+        <v>62</v>
+      </c>
+      <c r="I47" s="3">
+        <v>63</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3">
+        <v>55</v>
+      </c>
+      <c r="L47" s="3">
+        <v>56</v>
+      </c>
+      <c r="M47" s="2">
+        <v>57</v>
+      </c>
+      <c r="N47" s="2">
+        <v>58</v>
+      </c>
+      <c r="O47" s="2">
+        <v>59</v>
+      </c>
+      <c r="P47" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>61</v>
+      </c>
+      <c r="R47" s="3">
+        <v>62</v>
+      </c>
+      <c r="S47" s="3">
+        <v>63</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="U47" s="3">
+        <v>55</v>
+      </c>
+      <c r="V47" s="3">
+        <v>56</v>
+      </c>
+      <c r="W47" s="2">
+        <v>57</v>
+      </c>
+      <c r="X47" s="2">
+        <v>58</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK47" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3">
+        <v>66</v>
+      </c>
+      <c r="D48" s="3">
+        <v>67</v>
+      </c>
+      <c r="E48" s="3">
+        <v>68</v>
+      </c>
+      <c r="F48" s="3">
+        <v>69</v>
+      </c>
+      <c r="G48" s="3">
+        <v>70</v>
+      </c>
+      <c r="H48" s="3">
+        <v>71</v>
+      </c>
+      <c r="I48" s="3">
+        <v>72</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3">
+        <v>64</v>
+      </c>
+      <c r="L48" s="3">
+        <v>65</v>
+      </c>
+      <c r="M48" s="3">
+        <v>66</v>
+      </c>
+      <c r="N48" s="3">
+        <v>67</v>
+      </c>
+      <c r="O48" s="3">
+        <v>68</v>
+      </c>
+      <c r="P48" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>70</v>
+      </c>
+      <c r="R48" s="3">
+        <v>71</v>
+      </c>
+      <c r="S48" s="3">
+        <v>72</v>
+      </c>
+      <c r="T48" s="4"/>
+      <c r="U48" s="3">
+        <v>64</v>
+      </c>
+      <c r="V48" s="3">
+        <v>65</v>
+      </c>
+      <c r="W48" s="3">
+        <v>66</v>
+      </c>
+      <c r="X48" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>72</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>73</v>
+      </c>
+      <c r="B49" s="3">
+        <v>74</v>
+      </c>
+      <c r="C49" s="3">
+        <v>75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3">
+        <v>77</v>
+      </c>
+      <c r="F49" s="3">
+        <v>78</v>
+      </c>
+      <c r="G49" s="3">
+        <v>79</v>
+      </c>
+      <c r="H49" s="3">
+        <v>80</v>
+      </c>
+      <c r="I49" s="3">
+        <v>81</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3">
+        <v>73</v>
+      </c>
+      <c r="L49" s="3">
+        <v>74</v>
+      </c>
+      <c r="M49" s="3">
+        <v>75</v>
+      </c>
+      <c r="N49" s="3">
+        <v>76</v>
+      </c>
+      <c r="O49" s="3">
+        <v>77</v>
+      </c>
+      <c r="P49" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>79</v>
+      </c>
+      <c r="R49" s="3">
+        <v>80</v>
+      </c>
+      <c r="S49" s="3">
+        <v>81</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="3">
+        <v>73</v>
+      </c>
+      <c r="V49" s="3">
+        <v>74</v>
+      </c>
+      <c r="W49" s="3">
+        <v>75</v>
+      </c>
+      <c r="X49" s="3">
+        <v>76</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>80</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>81</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatternNumber.xlsx
+++ b/PatternNumber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="0" windowWidth="19320" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="0" windowWidth="19320" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2915,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2926,7 +2926,7 @@
     <col min="1" max="56" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -3010,8 +3010,35 @@
       <c r="AC1" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -3052,7 +3079,7 @@
       <c r="N2" s="3">
         <v>13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>14</v>
       </c>
       <c r="P2" s="3">
@@ -3080,7 +3107,7 @@
       <c r="X2" s="3">
         <v>13</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="3">
         <v>14</v>
       </c>
       <c r="Z2" s="3">
@@ -3095,8 +3122,35 @@
       <c r="AC2" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>19</v>
       </c>
@@ -3159,19 +3213,19 @@
       <c r="V3" s="3">
         <v>20</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>21</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="2">
         <v>22</v>
       </c>
       <c r="Y3" s="2">
         <v>23</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>24</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2">
         <v>25</v>
       </c>
       <c r="AB3" s="3">
@@ -3180,8 +3234,35 @@
       <c r="AC3" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>28</v>
       </c>
@@ -3250,7 +3331,7 @@
       <c r="X4" s="3">
         <v>31</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3">
         <v>32</v>
       </c>
       <c r="Z4" s="3">
@@ -3265,12 +3346,39 @@
       <c r="AC4" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>37</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>38</v>
       </c>
       <c r="C5" s="2">
@@ -3288,7 +3396,7 @@
       <c r="G5" s="2">
         <v>43</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>44</v>
       </c>
       <c r="I5" s="3">
@@ -3326,32 +3434,59 @@
       <c r="U5" s="3">
         <v>37</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="3">
         <v>38</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3">
         <v>39</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="3">
         <v>40</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="3">
         <v>41</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="3">
         <v>42</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="3">
         <v>43</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="3">
         <v>44</v>
       </c>
       <c r="AC5" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>41</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>44</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>46</v>
       </c>
@@ -3420,7 +3555,7 @@
       <c r="X6" s="3">
         <v>49</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3">
         <v>50</v>
       </c>
       <c r="Z6" s="3">
@@ -3435,8 +3570,35 @@
       <c r="AC6" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>55</v>
       </c>
@@ -3499,19 +3661,19 @@
       <c r="V7" s="3">
         <v>56</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <v>57</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="2">
         <v>58</v>
       </c>
       <c r="Y7" s="2">
         <v>59</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="2">
         <v>60</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="2">
         <v>61</v>
       </c>
       <c r="AB7" s="3">
@@ -3520,8 +3682,35 @@
       <c r="AC7" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>59</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>64</v>
       </c>
@@ -3562,7 +3751,7 @@
       <c r="N8" s="3">
         <v>67</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>68</v>
       </c>
       <c r="P8" s="3">
@@ -3590,7 +3779,7 @@
       <c r="X8" s="3">
         <v>67</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="3">
         <v>68</v>
       </c>
       <c r="Z8" s="3">
@@ -3605,8 +3794,35 @@
       <c r="AC8" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>73</v>
       </c>
@@ -3690,8 +3906,35 @@
       <c r="AC9" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3722,7 +3965,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -3806,6 +4049,7 @@
       <c r="AC11" s="3">
         <v>9</v>
       </c>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="3">
         <v>1</v>
       </c>
@@ -3833,8 +4077,9 @@
       <c r="AM11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3847,7 +4092,7 @@
       <c r="D12" s="3">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>14</v>
       </c>
       <c r="F12" s="3">
@@ -3903,7 +4148,7 @@
       <c r="X12" s="3">
         <v>13</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="3">
         <v>14</v>
       </c>
       <c r="Z12" s="3">
@@ -3918,6 +4163,7 @@
       <c r="AC12" s="3">
         <v>18</v>
       </c>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="3">
         <v>10</v>
       </c>
@@ -3930,7 +4176,7 @@
       <c r="AH12" s="3">
         <v>13</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12" s="3">
         <v>14</v>
       </c>
       <c r="AJ12" s="3">
@@ -3945,21 +4191,22 @@
       <c r="AM12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>22</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>23</v>
       </c>
       <c r="F13" s="3">
@@ -3993,7 +4240,7 @@
       <c r="P13" s="3">
         <v>24</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>25</v>
       </c>
       <c r="R13" s="3">
@@ -4009,19 +4256,19 @@
       <c r="V13" s="3">
         <v>20</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <v>21</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <v>22</v>
       </c>
       <c r="Y13" s="2">
         <v>23</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="2">
         <v>24</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="2">
         <v>25</v>
       </c>
       <c r="AB13" s="3">
@@ -4030,25 +4277,26 @@
       <c r="AC13" s="3">
         <v>27</v>
       </c>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="3">
         <v>19</v>
       </c>
       <c r="AF13" s="3">
         <v>20</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13" s="2">
         <v>21</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH13" s="2">
         <v>22</v>
       </c>
       <c r="AI13" s="2">
         <v>23</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="2">
         <v>24</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK13" s="2">
         <v>25</v>
       </c>
       <c r="AL13" s="3">
@@ -4057,21 +4305,22 @@
       <c r="AM13" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>29</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="3">
         <v>31</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>32</v>
       </c>
       <c r="F14" s="3">
@@ -4105,7 +4354,7 @@
       <c r="P14" s="3">
         <v>33</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>34</v>
       </c>
       <c r="R14" s="3">
@@ -4121,13 +4370,13 @@
       <c r="V14" s="3">
         <v>29</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <v>30</v>
       </c>
       <c r="X14" s="3">
         <v>31</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="3">
         <v>32</v>
       </c>
       <c r="Z14" s="3">
@@ -4142,6 +4391,7 @@
       <c r="AC14" s="3">
         <v>36</v>
       </c>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="3">
         <v>28</v>
       </c>
@@ -4154,13 +4404,13 @@
       <c r="AH14" s="3">
         <v>31</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AI14" s="3">
         <v>32</v>
       </c>
       <c r="AJ14" s="3">
         <v>33</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK14" s="2">
         <v>34</v>
       </c>
       <c r="AL14" s="3">
@@ -4169,30 +4419,31 @@
       <c r="AM14" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>37</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>39</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>40</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>41</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>42</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>43</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>44</v>
       </c>
       <c r="I15" s="3">
@@ -4202,25 +4453,25 @@
       <c r="K15" s="3">
         <v>37</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>38</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>39</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <v>40</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <v>41</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3">
         <v>42</v>
       </c>
       <c r="Q15" s="2">
         <v>43</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="3">
         <v>44</v>
       </c>
       <c r="S15" s="3">
@@ -4230,16 +4481,16 @@
       <c r="U15" s="3">
         <v>37</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="3">
         <v>38</v>
       </c>
       <c r="W15" s="2">
         <v>39</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="3">
         <v>40</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="3">
         <v>41</v>
       </c>
       <c r="Z15" s="3">
@@ -4254,6 +4505,7 @@
       <c r="AC15" s="3">
         <v>45</v>
       </c>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="3">
         <v>37</v>
       </c>
@@ -4266,30 +4518,31 @@
       <c r="AH15" s="3">
         <v>40</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15" s="3">
         <v>41</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ15" s="3">
         <v>42</v>
       </c>
       <c r="AK15" s="2">
         <v>43</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL15" s="3">
         <v>44</v>
       </c>
       <c r="AM15" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>46</v>
       </c>
       <c r="B16" s="3">
         <v>47</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>48</v>
       </c>
       <c r="D16" s="3">
@@ -4323,13 +4576,13 @@
       <c r="N16" s="3">
         <v>49</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3">
         <v>50</v>
       </c>
       <c r="P16" s="3">
         <v>51</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>52</v>
       </c>
       <c r="R16" s="3">
@@ -4345,13 +4598,13 @@
       <c r="V16" s="3">
         <v>47</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <v>48</v>
       </c>
       <c r="X16" s="3">
         <v>49</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="3">
         <v>50</v>
       </c>
       <c r="Z16" s="3">
@@ -4366,6 +4619,7 @@
       <c r="AC16" s="3">
         <v>54</v>
       </c>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="3">
         <v>46</v>
       </c>
@@ -4378,13 +4632,13 @@
       <c r="AH16" s="3">
         <v>49</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AI16" s="3">
         <v>50</v>
       </c>
       <c r="AJ16" s="3">
         <v>51</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK16" s="2">
         <v>52</v>
       </c>
       <c r="AL16" s="3">
@@ -4393,27 +4647,28 @@
       <c r="AM16" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN16" s="4"/>
+    </row>
+    <row r="17" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>55</v>
       </c>
       <c r="B17" s="3">
         <v>56</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>57</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>58</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>59</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>60</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>61</v>
       </c>
       <c r="H17" s="3">
@@ -4429,19 +4684,19 @@
       <c r="L17" s="3">
         <v>56</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>57</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>58</v>
       </c>
       <c r="O17" s="2">
         <v>59</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>60</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>61</v>
       </c>
       <c r="R17" s="3">
@@ -4457,13 +4712,13 @@
       <c r="V17" s="3">
         <v>56</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="2">
         <v>57</v>
       </c>
       <c r="X17" s="3">
         <v>58</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="3">
         <v>59</v>
       </c>
       <c r="Z17" s="3">
@@ -4478,6 +4733,7 @@
       <c r="AC17" s="3">
         <v>63</v>
       </c>
+      <c r="AD17" s="4"/>
       <c r="AE17" s="3">
         <v>55</v>
       </c>
@@ -4490,13 +4746,13 @@
       <c r="AH17" s="3">
         <v>58</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AI17" s="3">
         <v>59</v>
       </c>
       <c r="AJ17" s="3">
         <v>60</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK17" s="2">
         <v>61</v>
       </c>
       <c r="AL17" s="3">
@@ -4505,8 +4761,9 @@
       <c r="AM17" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN17" s="4"/>
+    </row>
+    <row r="18" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>64</v>
       </c>
@@ -4547,7 +4804,7 @@
       <c r="N18" s="3">
         <v>67</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3">
         <v>68</v>
       </c>
       <c r="P18" s="3">
@@ -4575,7 +4832,7 @@
       <c r="X18" s="3">
         <v>67</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="3">
         <v>68</v>
       </c>
       <c r="Z18" s="3">
@@ -4590,6 +4847,7 @@
       <c r="AC18" s="3">
         <v>72</v>
       </c>
+      <c r="AD18" s="4"/>
       <c r="AE18" s="3">
         <v>64</v>
       </c>
@@ -4602,7 +4860,7 @@
       <c r="AH18" s="3">
         <v>67</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AI18" s="3">
         <v>68</v>
       </c>
       <c r="AJ18" s="3">
@@ -4617,8 +4875,9 @@
       <c r="AM18" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN18" s="4"/>
+    </row>
+    <row r="19" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>73</v>
       </c>
@@ -4702,6 +4961,7 @@
       <c r="AC19" s="3">
         <v>81</v>
       </c>
+      <c r="AD19" s="4"/>
       <c r="AE19" s="3">
         <v>73</v>
       </c>
@@ -4729,8 +4989,9 @@
       <c r="AM19" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN19" s="4"/>
+    </row>
+    <row r="20" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4760,8 +5021,19 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+    </row>
+    <row r="21" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -4845,6 +5117,7 @@
       <c r="AC21" s="3">
         <v>9</v>
       </c>
+      <c r="AD21" s="4"/>
       <c r="AE21" s="3">
         <v>1</v>
       </c>
@@ -4872,8 +5145,9 @@
       <c r="AM21" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN21" s="4"/>
+    </row>
+    <row r="22" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>10</v>
       </c>
@@ -4886,7 +5160,7 @@
       <c r="D22" s="3">
         <v>13</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>14</v>
       </c>
       <c r="F22" s="3">
@@ -4914,7 +5188,7 @@
       <c r="N22" s="3">
         <v>13</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="3">
         <v>14</v>
       </c>
       <c r="P22" s="3">
@@ -4957,6 +5231,7 @@
       <c r="AC22" s="3">
         <v>18</v>
       </c>
+      <c r="AD22" s="4"/>
       <c r="AE22" s="3">
         <v>10</v>
       </c>
@@ -4984,27 +5259,28 @@
       <c r="AM22" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN22" s="4"/>
+    </row>
+    <row r="23" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>22</v>
       </c>
       <c r="E23" s="2">
         <v>23</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>24</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>25</v>
       </c>
       <c r="H23" s="3">
@@ -5048,7 +5324,7 @@
       <c r="V23" s="3">
         <v>20</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="2">
         <v>21</v>
       </c>
       <c r="X23" s="3">
@@ -5069,6 +5345,7 @@
       <c r="AC23" s="3">
         <v>27</v>
       </c>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="3">
         <v>19</v>
       </c>
@@ -5087,7 +5364,7 @@
       <c r="AJ23" s="3">
         <v>24</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AK23" s="2">
         <v>25</v>
       </c>
       <c r="AL23" s="3">
@@ -5096,8 +5373,9 @@
       <c r="AM23" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN23" s="4"/>
+    </row>
+    <row r="24" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -5160,7 +5438,7 @@
       <c r="V24" s="3">
         <v>29</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="2">
         <v>30</v>
       </c>
       <c r="X24" s="3">
@@ -5181,6 +5459,7 @@
       <c r="AC24" s="3">
         <v>36</v>
       </c>
+      <c r="AD24" s="4"/>
       <c r="AE24" s="3">
         <v>28</v>
       </c>
@@ -5199,7 +5478,7 @@
       <c r="AJ24" s="3">
         <v>33</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK24" s="2">
         <v>34</v>
       </c>
       <c r="AL24" s="3">
@@ -5208,18 +5487,19 @@
       <c r="AM24" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN24" s="4"/>
+    </row>
+    <row r="25" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>37</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>38</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>39</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>40</v>
       </c>
       <c r="E25" s="2">
@@ -5253,13 +5533,13 @@
       <c r="O25" s="2">
         <v>41</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="3">
         <v>42</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="3">
         <v>43</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="3">
         <v>44</v>
       </c>
       <c r="S25" s="3">
@@ -5269,7 +5549,7 @@
       <c r="U25" s="3">
         <v>37</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="3">
         <v>38</v>
       </c>
       <c r="W25" s="2">
@@ -5281,10 +5561,10 @@
       <c r="Y25" s="2">
         <v>41</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="2">
         <v>42</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="2">
         <v>43</v>
       </c>
       <c r="AB25" s="3">
@@ -5293,16 +5573,17 @@
       <c r="AC25" s="3">
         <v>45</v>
       </c>
+      <c r="AD25" s="4"/>
       <c r="AE25" s="3">
         <v>37</v>
       </c>
       <c r="AF25" s="3">
         <v>38</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG25" s="2">
         <v>39</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AH25" s="2">
         <v>40</v>
       </c>
       <c r="AI25" s="2">
@@ -5314,14 +5595,15 @@
       <c r="AK25" s="2">
         <v>43</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25" s="3">
         <v>44</v>
       </c>
       <c r="AM25" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN25" s="4"/>
+    </row>
+    <row r="26" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>46</v>
       </c>
@@ -5334,7 +5616,7 @@
       <c r="D26" s="3">
         <v>49</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>50</v>
       </c>
       <c r="F26" s="3">
@@ -5362,7 +5644,7 @@
       <c r="N26" s="3">
         <v>49</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <v>50</v>
       </c>
       <c r="P26" s="3">
@@ -5384,13 +5666,13 @@
       <c r="V26" s="3">
         <v>47</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="2">
         <v>48</v>
       </c>
       <c r="X26" s="3">
         <v>49</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="3">
         <v>50</v>
       </c>
       <c r="Z26" s="3">
@@ -5405,6 +5687,7 @@
       <c r="AC26" s="3">
         <v>54</v>
       </c>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="3">
         <v>46</v>
       </c>
@@ -5417,13 +5700,13 @@
       <c r="AH26" s="3">
         <v>49</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="3">
         <v>50</v>
       </c>
       <c r="AJ26" s="3">
         <v>51</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AK26" s="2">
         <v>52</v>
       </c>
       <c r="AL26" s="3">
@@ -5432,8 +5715,9 @@
       <c r="AM26" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN26" s="4"/>
+    </row>
+    <row r="27" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>55</v>
       </c>
@@ -5446,7 +5730,7 @@
       <c r="D27" s="3">
         <v>58</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>59</v>
       </c>
       <c r="F27" s="3">
@@ -5468,19 +5752,19 @@
       <c r="L27" s="3">
         <v>56</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>57</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>58</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>59</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <v>60</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2">
         <v>61</v>
       </c>
       <c r="R27" s="3">
@@ -5496,13 +5780,13 @@
       <c r="V27" s="3">
         <v>56</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="2">
         <v>57</v>
       </c>
       <c r="X27" s="3">
         <v>58</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="3">
         <v>59</v>
       </c>
       <c r="Z27" s="3">
@@ -5517,6 +5801,7 @@
       <c r="AC27" s="3">
         <v>63</v>
       </c>
+      <c r="AD27" s="4"/>
       <c r="AE27" s="3">
         <v>55</v>
       </c>
@@ -5529,13 +5814,13 @@
       <c r="AH27" s="3">
         <v>58</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI27" s="3">
         <v>59</v>
       </c>
       <c r="AJ27" s="3">
         <v>60</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AK27" s="2">
         <v>61</v>
       </c>
       <c r="AL27" s="3">
@@ -5544,8 +5829,9 @@
       <c r="AM27" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN27" s="4"/>
+    </row>
+    <row r="28" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>64</v>
       </c>
@@ -5614,7 +5900,7 @@
       <c r="X28" s="3">
         <v>67</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="3">
         <v>68</v>
       </c>
       <c r="Z28" s="3">
@@ -5629,6 +5915,7 @@
       <c r="AC28" s="3">
         <v>72</v>
       </c>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="3">
         <v>64</v>
       </c>
@@ -5641,7 +5928,7 @@
       <c r="AH28" s="3">
         <v>67</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AI28" s="3">
         <v>68</v>
       </c>
       <c r="AJ28" s="3">
@@ -5656,8 +5943,9 @@
       <c r="AM28" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN28" s="4"/>
+    </row>
+    <row r="29" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>73</v>
       </c>
@@ -5741,6 +6029,7 @@
       <c r="AC29" s="3">
         <v>81</v>
       </c>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="3">
         <v>73</v>
       </c>
@@ -5768,8 +6057,9 @@
       <c r="AM29" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN29" s="4"/>
+    </row>
+    <row r="30" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5800,7 +6090,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -5884,8 +6174,35 @@
       <c r="AC31" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>10</v>
       </c>
@@ -5969,15 +6286,42 @@
       <c r="AC32" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>19</v>
       </c>
       <c r="B33" s="3">
         <v>20</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>21</v>
       </c>
       <c r="D33" s="3">
@@ -5989,7 +6333,7 @@
       <c r="F33" s="3">
         <v>24</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>25</v>
       </c>
       <c r="H33" s="3">
@@ -6005,19 +6349,19 @@
       <c r="L33" s="3">
         <v>20</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>21</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <v>22</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <v>23</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <v>24</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="2">
         <v>25</v>
       </c>
       <c r="R33" s="3">
@@ -6033,19 +6377,19 @@
       <c r="V33" s="3">
         <v>20</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="2">
         <v>21</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <v>22</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="2">
         <v>23</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="2">
         <v>24</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="2">
         <v>25</v>
       </c>
       <c r="AB33" s="3">
@@ -6054,15 +6398,42 @@
       <c r="AC33" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>22</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>24</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>28</v>
       </c>
       <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>30</v>
       </c>
       <c r="D34" s="3">
@@ -6074,7 +6445,7 @@
       <c r="F34" s="3">
         <v>33</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>34</v>
       </c>
       <c r="H34" s="3">
@@ -6090,7 +6461,7 @@
       <c r="L34" s="3">
         <v>29</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>30</v>
       </c>
       <c r="N34" s="3">
@@ -6130,7 +6501,7 @@
       <c r="Z34" s="3">
         <v>33</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34" s="2">
         <v>34</v>
       </c>
       <c r="AB34" s="3">
@@ -6139,15 +6510,42 @@
       <c r="AC34" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>32</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>37</v>
       </c>
       <c r="B35" s="3">
         <v>38</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>39</v>
       </c>
       <c r="D35" s="3">
@@ -6159,7 +6557,7 @@
       <c r="F35" s="3">
         <v>42</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>43</v>
       </c>
       <c r="H35" s="3">
@@ -6175,7 +6573,7 @@
       <c r="L35" s="3">
         <v>38</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>39</v>
       </c>
       <c r="N35" s="3">
@@ -6215,7 +6613,7 @@
       <c r="Z35" s="3">
         <v>42</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="2">
         <v>43</v>
       </c>
       <c r="AB35" s="3">
@@ -6224,15 +6622,42 @@
       <c r="AC35" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>41</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>42</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>44</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>46</v>
       </c>
       <c r="B36" s="3">
         <v>47</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>48</v>
       </c>
       <c r="D36" s="3">
@@ -6244,7 +6669,7 @@
       <c r="F36" s="3">
         <v>51</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>52</v>
       </c>
       <c r="H36" s="3">
@@ -6260,7 +6685,7 @@
       <c r="L36" s="3">
         <v>47</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>48</v>
       </c>
       <c r="N36" s="3">
@@ -6300,7 +6725,7 @@
       <c r="Z36" s="3">
         <v>51</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AA36" s="2">
         <v>52</v>
       </c>
       <c r="AB36" s="3">
@@ -6309,27 +6734,54 @@
       <c r="AC36" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE36" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>50</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>55</v>
       </c>
       <c r="B37" s="3">
         <v>56</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>57</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>58</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>59</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>60</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>61</v>
       </c>
       <c r="H37" s="3">
@@ -6345,19 +6797,19 @@
       <c r="L37" s="3">
         <v>56</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>57</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <v>58</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <v>59</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="2">
         <v>60</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="2">
         <v>61</v>
       </c>
       <c r="R37" s="3">
@@ -6373,19 +6825,19 @@
       <c r="V37" s="3">
         <v>56</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="2">
         <v>57</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="2">
         <v>58</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="2">
         <v>59</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z37" s="2">
         <v>60</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA37" s="2">
         <v>61</v>
       </c>
       <c r="AB37" s="3">
@@ -6394,8 +6846,35 @@
       <c r="AC37" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE37" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>59</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>64</v>
       </c>
@@ -6479,8 +6958,35 @@
       <c r="AC38" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE38" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>73</v>
       </c>
@@ -6564,8 +7070,35 @@
       <c r="AC39" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6596,9 +7129,1025 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>9</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>7</v>
+      </c>
+      <c r="R41" s="3">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
+        <v>9</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="3">
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <v>2</v>
+      </c>
+      <c r="W41" s="3">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3">
+        <v>11</v>
+      </c>
+      <c r="M42" s="3">
+        <v>12</v>
+      </c>
+      <c r="N42" s="3">
+        <v>13</v>
+      </c>
+      <c r="O42" s="3">
+        <v>14</v>
+      </c>
+      <c r="P42" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3">
+        <v>17</v>
+      </c>
+      <c r="S42" s="3">
+        <v>18</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="3">
+        <v>10</v>
+      </c>
+      <c r="V42" s="3">
+        <v>11</v>
+      </c>
+      <c r="W42" s="3">
+        <v>12</v>
+      </c>
+      <c r="X42" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>18</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>15</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>17</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23</v>
+      </c>
+      <c r="F43" s="3">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>26</v>
+      </c>
+      <c r="I43" s="3">
+        <v>27</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3">
+        <v>20</v>
+      </c>
+      <c r="M43" s="2">
+        <v>21</v>
+      </c>
+      <c r="N43" s="2">
+        <v>22</v>
+      </c>
+      <c r="O43" s="2">
+        <v>23</v>
+      </c>
+      <c r="P43" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>25</v>
+      </c>
+      <c r="R43" s="3">
+        <v>26</v>
+      </c>
+      <c r="S43" s="3">
+        <v>27</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="3">
+        <v>19</v>
+      </c>
+      <c r="V43" s="3">
+        <v>20</v>
+      </c>
+      <c r="W43" s="2">
+        <v>21</v>
+      </c>
+      <c r="X43" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>19</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>21</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>22</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>25</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2">
+        <v>34</v>
+      </c>
+      <c r="H44" s="3">
+        <v>35</v>
+      </c>
+      <c r="I44" s="3">
+        <v>36</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3">
+        <v>28</v>
+      </c>
+      <c r="L44" s="3">
+        <v>29</v>
+      </c>
+      <c r="M44" s="2">
+        <v>30</v>
+      </c>
+      <c r="N44" s="3">
+        <v>31</v>
+      </c>
+      <c r="O44" s="3">
+        <v>32</v>
+      </c>
+      <c r="P44" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>34</v>
+      </c>
+      <c r="R44" s="3">
+        <v>35</v>
+      </c>
+      <c r="S44" s="3">
+        <v>36</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="3">
+        <v>28</v>
+      </c>
+      <c r="V44" s="3">
+        <v>29</v>
+      </c>
+      <c r="W44" s="3">
+        <v>30</v>
+      </c>
+      <c r="X44" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>32</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>33</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>35</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>36</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>32</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42</v>
+      </c>
+      <c r="G45" s="2">
+        <v>43</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3">
+        <v>37</v>
+      </c>
+      <c r="L45" s="3">
+        <v>38</v>
+      </c>
+      <c r="M45" s="2">
+        <v>39</v>
+      </c>
+      <c r="N45" s="2">
+        <v>40</v>
+      </c>
+      <c r="O45" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>43</v>
+      </c>
+      <c r="R45" s="3">
+        <v>44</v>
+      </c>
+      <c r="S45" s="3">
+        <v>45</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="3">
+        <v>37</v>
+      </c>
+      <c r="V45" s="3">
+        <v>38</v>
+      </c>
+      <c r="W45" s="2">
+        <v>39</v>
+      </c>
+      <c r="X45" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>45</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>37</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>38</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>42</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>44</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3">
+        <v>51</v>
+      </c>
+      <c r="G46" s="2">
+        <v>52</v>
+      </c>
+      <c r="H46" s="3">
+        <v>53</v>
+      </c>
+      <c r="I46" s="3">
+        <v>54</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3">
+        <v>46</v>
+      </c>
+      <c r="L46" s="3">
+        <v>47</v>
+      </c>
+      <c r="M46" s="2">
+        <v>48</v>
+      </c>
+      <c r="N46" s="3">
+        <v>49</v>
+      </c>
+      <c r="O46" s="3">
+        <v>50</v>
+      </c>
+      <c r="P46" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>52</v>
+      </c>
+      <c r="R46" s="3">
+        <v>53</v>
+      </c>
+      <c r="S46" s="3">
+        <v>54</v>
+      </c>
+      <c r="T46" s="4"/>
+      <c r="U46" s="3">
+        <v>46</v>
+      </c>
+      <c r="V46" s="3">
+        <v>47</v>
+      </c>
+      <c r="W46" s="3">
+        <v>48</v>
+      </c>
+      <c r="X46" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>51</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>52</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>53</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>54</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>49</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>50</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK46" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>53</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>55</v>
+      </c>
+      <c r="B47" s="3">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2">
+        <v>57</v>
+      </c>
+      <c r="D47" s="2">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2">
+        <v>59</v>
+      </c>
+      <c r="F47" s="2">
+        <v>60</v>
+      </c>
+      <c r="G47" s="2">
+        <v>61</v>
+      </c>
+      <c r="H47" s="3">
+        <v>62</v>
+      </c>
+      <c r="I47" s="3">
+        <v>63</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3">
+        <v>55</v>
+      </c>
+      <c r="L47" s="3">
+        <v>56</v>
+      </c>
+      <c r="M47" s="2">
+        <v>57</v>
+      </c>
+      <c r="N47" s="2">
+        <v>58</v>
+      </c>
+      <c r="O47" s="2">
+        <v>59</v>
+      </c>
+      <c r="P47" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>61</v>
+      </c>
+      <c r="R47" s="3">
+        <v>62</v>
+      </c>
+      <c r="S47" s="3">
+        <v>63</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="U47" s="3">
+        <v>55</v>
+      </c>
+      <c r="V47" s="3">
+        <v>56</v>
+      </c>
+      <c r="W47" s="2">
+        <v>57</v>
+      </c>
+      <c r="X47" s="2">
+        <v>58</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>62</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>55</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>56</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>58</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>60</v>
+      </c>
+      <c r="AK47" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>62</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3">
+        <v>66</v>
+      </c>
+      <c r="D48" s="3">
+        <v>67</v>
+      </c>
+      <c r="E48" s="3">
+        <v>68</v>
+      </c>
+      <c r="F48" s="3">
+        <v>69</v>
+      </c>
+      <c r="G48" s="3">
+        <v>70</v>
+      </c>
+      <c r="H48" s="3">
+        <v>71</v>
+      </c>
+      <c r="I48" s="3">
+        <v>72</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3">
+        <v>64</v>
+      </c>
+      <c r="L48" s="3">
+        <v>65</v>
+      </c>
+      <c r="M48" s="3">
+        <v>66</v>
+      </c>
+      <c r="N48" s="3">
+        <v>67</v>
+      </c>
+      <c r="O48" s="3">
+        <v>68</v>
+      </c>
+      <c r="P48" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>70</v>
+      </c>
+      <c r="R48" s="3">
+        <v>71</v>
+      </c>
+      <c r="S48" s="3">
+        <v>72</v>
+      </c>
+      <c r="T48" s="4"/>
+      <c r="U48" s="3">
+        <v>64</v>
+      </c>
+      <c r="V48" s="3">
+        <v>65</v>
+      </c>
+      <c r="W48" s="3">
+        <v>66</v>
+      </c>
+      <c r="X48" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>69</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>71</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>72</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>64</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>65</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>66</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>67</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>68</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>69</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>71</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>73</v>
+      </c>
+      <c r="B49" s="3">
+        <v>74</v>
+      </c>
+      <c r="C49" s="3">
+        <v>75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3">
+        <v>77</v>
+      </c>
+      <c r="F49" s="3">
+        <v>78</v>
+      </c>
+      <c r="G49" s="3">
+        <v>79</v>
+      </c>
+      <c r="H49" s="3">
+        <v>80</v>
+      </c>
+      <c r="I49" s="3">
+        <v>81</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3">
+        <v>73</v>
+      </c>
+      <c r="L49" s="3">
+        <v>74</v>
+      </c>
+      <c r="M49" s="3">
+        <v>75</v>
+      </c>
+      <c r="N49" s="3">
+        <v>76</v>
+      </c>
+      <c r="O49" s="3">
+        <v>77</v>
+      </c>
+      <c r="P49" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>79</v>
+      </c>
+      <c r="R49" s="3">
+        <v>80</v>
+      </c>
+      <c r="S49" s="3">
+        <v>81</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="3">
+        <v>73</v>
+      </c>
+      <c r="V49" s="3">
+        <v>74</v>
+      </c>
+      <c r="W49" s="3">
+        <v>75</v>
+      </c>
+      <c r="X49" s="3">
+        <v>76</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>77</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>78</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>79</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>80</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>81</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>73</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>74</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>75</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>76</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>78</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>79</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>80</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>